--- a/docs/cda-logical-model/StructureDefinition-Section.xlsx
+++ b/docs/cda-logical-model/StructureDefinition-Section.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T15:52:41+01:00</t>
+    <t>2023-02-07T19:43:49+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -94,7 +94,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Kind</t>
@@ -239,6 +239,10 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Base for all types and resources</t>
@@ -368,10 +372,6 @@
   </si>
   <si>
     <t>Section.subject.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -930,42 +930,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.97265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.97265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.8984375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.453125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="62.7265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="62.72265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.91015625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="14.21484375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.515625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.30078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="38.97265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="19.80078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.98046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="38.453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1109,13 +1109,13 @@
         <v>72</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1166,13 +1166,13 @@
         <v>72</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>72</v>
@@ -1181,15 +1181,15 @@
         <v>72</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>73</v>
@@ -1212,7 +1212,7 @@
         <v>72</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1265,10 +1265,10 @@
         <v>72</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>73</v>
@@ -1285,10 +1285,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>73</v>
@@ -1311,7 +1311,7 @@
         <v>72</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1340,11 +1340,11 @@
         <v>72</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>72</v>
@@ -1362,10 +1362,10 @@
         <v>72</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>73</v>
@@ -1382,10 +1382,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1408,18 +1408,18 @@
         <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S5" t="s" s="2">
         <v>72</v>
@@ -1437,11 +1437,11 @@
         <v>72</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y5" s="2"/>
       <c r="Z5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>72</v>
@@ -1459,7 +1459,7 @@
         <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>73</v>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1505,18 +1505,18 @@
         <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S6" t="s" s="2">
         <v>72</v>
@@ -1534,11 +1534,11 @@
         <v>72</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>72</v>
@@ -1556,7 +1556,7 @@
         <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>73</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1587,10 +1587,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>72</v>
@@ -1602,11 +1602,11 @@
         <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1657,13 +1657,13 @@
         <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>72</v>
@@ -1677,10 +1677,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>73</v>
@@ -1703,7 +1703,7 @@
         <v>72</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1756,10 +1756,10 @@
         <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>73</v>
@@ -1776,10 +1776,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>73</v>
@@ -1802,7 +1802,7 @@
         <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1831,11 +1831,11 @@
         <v>72</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y9" s="2"/>
       <c r="Z9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>72</v>
@@ -1853,10 +1853,10 @@
         <v>72</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>73</v>
@@ -1873,10 +1873,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>73</v>
@@ -1899,7 +1899,7 @@
         <v>72</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1952,10 +1952,10 @@
         <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>73</v>
@@ -1972,10 +1972,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1983,13 +1983,13 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>72</v>
@@ -1998,7 +1998,7 @@
         <v>72</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2051,10 +2051,10 @@
         <v>72</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>73</v>
@@ -2071,10 +2071,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>73</v>
@@ -2097,7 +2097,7 @@
         <v>72</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -2150,10 +2150,10 @@
         <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>73</v>
@@ -2170,10 +2170,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>73</v>
@@ -2196,7 +2196,7 @@
         <v>72</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -2225,11 +2225,11 @@
         <v>72</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>72</v>
@@ -2247,10 +2247,10 @@
         <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>73</v>
@@ -2267,10 +2267,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>73</v>
@@ -2293,7 +2293,7 @@
         <v>72</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -2346,10 +2346,10 @@
         <v>72</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>73</v>
@@ -2358,7 +2358,7 @@
         <v>72</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>72</v>
@@ -2366,10 +2366,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>73</v>
@@ -2392,7 +2392,7 @@
         <v>72</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>115</v>
@@ -2452,7 +2452,7 @@
         <v>117</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>73</v>
@@ -2464,7 +2464,7 @@
         <v>72</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" hidden="true">
@@ -2480,10 +2480,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>72</v>
@@ -2557,10 +2557,10 @@
         <v>127</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>72</v>
@@ -2569,7 +2569,7 @@
         <v>128</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" hidden="true">
@@ -2600,7 +2600,7 @@
         <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -2629,7 +2629,7 @@
         <v>72</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
@@ -2697,7 +2697,7 @@
         <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -2726,7 +2726,7 @@
         <v>72</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>73</v>
@@ -2794,7 +2794,7 @@
         <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -2823,7 +2823,7 @@
         <v>72</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
@@ -2848,7 +2848,7 @@
         <v>135</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>73</v>
@@ -2975,10 +2975,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>72</v>
@@ -3046,10 +3046,10 @@
         <v>139</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>72</v>
@@ -3074,10 +3074,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>72</v>
@@ -3089,7 +3089,7 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -3145,16 +3145,16 @@
         <v>141</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>72</v>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>73</v>
@@ -3188,7 +3188,7 @@
         <v>72</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>115</v>
@@ -3248,7 +3248,7 @@
         <v>117</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>73</v>
@@ -3260,7 +3260,7 @@
         <v>72</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" hidden="true">
@@ -3276,10 +3276,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>72</v>
@@ -3353,10 +3353,10 @@
         <v>127</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>72</v>
@@ -3365,7 +3365,7 @@
         <v>128</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" hidden="true">
@@ -3396,7 +3396,7 @@
         <v>72</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -3425,7 +3425,7 @@
         <v>72</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
@@ -3493,7 +3493,7 @@
         <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -3522,7 +3522,7 @@
         <v>72</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>73</v>
@@ -3646,7 +3646,7 @@
         <v>148</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>73</v>
@@ -3674,7 +3674,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>73</v>
@@ -3745,7 +3745,7 @@
         <v>150</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>73</v>
@@ -3773,10 +3773,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>72</v>
@@ -3788,7 +3788,7 @@
         <v>72</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -3844,10 +3844,10 @@
         <v>152</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>72</v>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>73</v>
@@ -3887,7 +3887,7 @@
         <v>72</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>115</v>
@@ -3947,7 +3947,7 @@
         <v>117</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>73</v>
@@ -3959,7 +3959,7 @@
         <v>72</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" hidden="true">
@@ -3975,10 +3975,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>72</v>
@@ -4052,10 +4052,10 @@
         <v>127</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>72</v>
@@ -4064,7 +4064,7 @@
         <v>128</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" hidden="true">
@@ -4095,7 +4095,7 @@
         <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>73</v>
@@ -4349,7 +4349,7 @@
         <v>161</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>73</v>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>73</v>
@@ -4448,7 +4448,7 @@
         <v>163</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>73</v>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>73</v>
@@ -4547,7 +4547,7 @@
         <v>165</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>73</v>
@@ -4575,7 +4575,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>73</v>
@@ -4646,7 +4646,7 @@
         <v>167</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>73</v>
@@ -4674,7 +4674,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>73</v>
@@ -4745,7 +4745,7 @@
         <v>169</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>73</v>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>73</v>
@@ -4844,7 +4844,7 @@
         <v>171</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>73</v>
@@ -4872,7 +4872,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>73</v>
@@ -4943,7 +4943,7 @@
         <v>173</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>73</v>
@@ -4971,7 +4971,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>73</v>
@@ -5042,7 +5042,7 @@
         <v>175</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>73</v>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>73</v>
@@ -5141,7 +5141,7 @@
         <v>177</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>73</v>
@@ -5169,10 +5169,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>72</v>
@@ -5184,7 +5184,7 @@
         <v>72</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -5240,16 +5240,16 @@
         <v>179</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>72</v>
@@ -5268,7 +5268,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>73</v>
@@ -5283,7 +5283,7 @@
         <v>72</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>115</v>
@@ -5343,7 +5343,7 @@
         <v>117</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>73</v>
@@ -5355,7 +5355,7 @@
         <v>72</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" hidden="true">
@@ -5371,10 +5371,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>72</v>
@@ -5448,10 +5448,10 @@
         <v>127</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>72</v>
@@ -5460,7 +5460,7 @@
         <v>128</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" hidden="true">
@@ -5491,7 +5491,7 @@
         <v>72</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" t="s" s="2">

--- a/docs/cda-logical-model/StructureDefinition-Section.xlsx
+++ b/docs/cda-logical-model/StructureDefinition-Section.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-sd-202312-matchbox-patch</t>
+    <t>2.0.0-sd-202406-matchbox-patch</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T18:28:21+01:00</t>
+    <t>2024-06-19T17:47:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 International - Structured Documents (http://www.hl7.org/Special/committees/structure, structdog@lists.HL7.org)</t>
   </si>
   <si>
     <t>Description</t>
@@ -402,7 +402,7 @@
     <t>EVN</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActMood</t>
+    <t>http://hl7.org/cda/stds/core/ValueSet/CDAActMood</t>
   </si>
   <si>
     <t>Section.id</t>
